--- a/AIL/AIL_REV2/Released/BOM/Bill of Materials-AIL_REV2.xlsx
+++ b/AIL/AIL_REV2/Released/BOM/Bill of Materials-AIL_REV2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9466AE8D-1AF4-4547-8E44-1E159B42D124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22666E2F-2CE1-4089-ADE9-9D93FC24D335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1956" windowWidth="17280" windowHeight="9024" xr2:uid="{D5AC2CAB-2135-4FC3-B658-9A94BAAFAF4A}"/>
+    <workbookView xWindow="0" yWindow="1956" windowWidth="17280" windowHeight="9024" xr2:uid="{251D694F-B0B9-4EAD-8A5C-7B7DB1406BF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-AIL_REV2" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E692093-FFCA-4379-9D3A-2BF0E0692EF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AACEEF-BD61-4BFD-8005-24FD8E840160}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/AIL/AIL_REV2/Released/BOM/Bill of Materials-AIL_REV2.xlsx
+++ b/AIL/AIL_REV2/Released/BOM/Bill of Materials-AIL_REV2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22666E2F-2CE1-4089-ADE9-9D93FC24D335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB6FE73-C61A-4A87-83A2-58FC83E2037C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1956" windowWidth="17280" windowHeight="9024" xr2:uid="{251D694F-B0B9-4EAD-8A5C-7B7DB1406BF6}"/>
+    <workbookView xWindow="0" yWindow="1956" windowWidth="17280" windowHeight="9024" xr2:uid="{8D0EFE2D-E286-4568-81AF-7DE7D0E12F58}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-AIL_REV2" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AACEEF-BD61-4BFD-8005-24FD8E840160}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F7ACC8-ACC5-43C8-8819-CC277F662045}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/AIL/AIL_REV2/Released/BOM/Bill of Materials-AIL_REV2.xlsx
+++ b/AIL/AIL_REV2/Released/BOM/Bill of Materials-AIL_REV2.xlsx
@@ -16,20 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
@@ -39,187 +39,223 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>CAP CER 2.2UF 450V X6S 2220</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
     <t>2.2uF</t>
   </si>
   <si>
-    <t>CAP CER 2.2UF 450V X6S 2220</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>CAP-2220</t>
   </si>
   <si>
     <t>2220-2.2uF-450V</t>
   </si>
   <si>
+    <t>C5750X6S2W225K250KA</t>
+  </si>
+  <si>
+    <t>CAP CER 22UF 10V X5R 0805</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>22uF</t>
   </si>
   <si>
-    <t>CAP CER 22UF 10V X5R 0805</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>CAP-0805</t>
   </si>
   <si>
     <t>0805-22uF-10V</t>
   </si>
   <si>
+    <t>C0805C226M8PACTU</t>
+  </si>
+  <si>
+    <t>FUSE SMT 3912 FAST 250V 800MA</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>250V 800mA</t>
+  </si>
+  <si>
+    <t>Fuse-10x3</t>
+  </si>
+  <si>
+    <t>Fuse 250V-0.8A</t>
+  </si>
+  <si>
+    <t>0678D0800-02</t>
+  </si>
+  <si>
+    <t>IC COMPARATOR R-R MCRPWR SOT23-5</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>497-6777-1-ND</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>Compare-TS861ILT</t>
+  </si>
+  <si>
+    <t>TS861ILT</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 5V 10MA SOT89-3</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>NCP785AH50T1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>SOT-89</t>
+  </si>
+  <si>
+    <t>LDO-12V-10mA</t>
+  </si>
+  <si>
+    <t>NCP785AH120T1G</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR 0603 SMD</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>Green</t>
   </si>
   <si>
-    <t>LED GREEN CLEAR 0603 SMD</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>LED-0603</t>
   </si>
   <si>
     <t>LED-Green</t>
   </si>
   <si>
-    <t>250V 800mA</t>
-  </si>
-  <si>
-    <t>FUSE SMT 3912 FAST 250V 800MA</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Fuse-10x3</t>
-  </si>
-  <si>
-    <t>Fuse 250V-0.8A</t>
+    <t>150060VS75000</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>RES-0805</t>
+  </si>
+  <si>
+    <t>0805-10KR</t>
+  </si>
+  <si>
+    <t>RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t>RES SMD 110K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>110K</t>
+  </si>
+  <si>
+    <t>0805-110KR</t>
+  </si>
+  <si>
+    <t>RC0805FR-07110KL</t>
+  </si>
+  <si>
+    <t>RES SMD 280 OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>280R</t>
+  </si>
+  <si>
+    <t>0805-280R</t>
+  </si>
+  <si>
+    <t>RC0805FR-07280RL</t>
+  </si>
+  <si>
+    <t>RES SMD 665 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>665R</t>
+  </si>
+  <si>
+    <t>RES-0603</t>
+  </si>
+  <si>
+    <t>0603-665R</t>
+  </si>
+  <si>
+    <t>RC0603FR-07665RL</t>
+  </si>
+  <si>
+    <t>CONN HEADER R/A 2POS 2.54MM</t>
+  </si>
+  <si>
+    <t>J1, J2</t>
   </si>
   <si>
     <t>WM4153-ND</t>
   </si>
   <si>
-    <t>CONN HEADER R/A 2POS 2.54MM</t>
-  </si>
-  <si>
-    <t>J1, J2</t>
-  </si>
-  <si>
     <t>2PIN</t>
   </si>
   <si>
+    <t>0705530106</t>
+  </si>
+  <si>
+    <t>Single layer pad TP</t>
+  </si>
+  <si>
+    <t>JP1 HIGH_OUT, JP2 D+5V_TS</t>
+  </si>
+  <si>
     <t>Testpoint2</t>
   </si>
   <si>
-    <t>Single layer pad TP</t>
-  </si>
-  <si>
-    <t>JP1 HIGH_OUT, JP2 D+5V_TS</t>
-  </si>
-  <si>
     <t>TP2</t>
   </si>
   <si>
+    <t>Mounting hole, 4.2mm</t>
+  </si>
+  <si>
+    <t>MH1, MH2, MH3, MH4</t>
+  </si>
+  <si>
     <t>MountingHole</t>
   </si>
   <si>
-    <t>Mounting hole, 4.2mm</t>
-  </si>
-  <si>
-    <t>MH1, MH2, MH3, MH4</t>
-  </si>
-  <si>
     <t>MH4.2MM</t>
   </si>
   <si>
     <t>MH4.2mm</t>
-  </si>
-  <si>
-    <t>110K</t>
-  </si>
-  <si>
-    <t>RES SMD 110K OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>RES-0805</t>
-  </si>
-  <si>
-    <t>0805-110KR</t>
-  </si>
-  <si>
-    <t>665R</t>
-  </si>
-  <si>
-    <t>RES SMD 665 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>RES-0603</t>
-  </si>
-  <si>
-    <t>0603-665R</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>0805-10KR</t>
-  </si>
-  <si>
-    <t>280R</t>
-  </si>
-  <si>
-    <t>RES SMD 280 OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>0805-280R</t>
-  </si>
-  <si>
-    <t>497-6777-1-ND</t>
-  </si>
-  <si>
-    <t>IC COMPARATOR R-R MCRPWR SOT23-5</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>Compare-TS861ILT</t>
-  </si>
-  <si>
-    <t>NCP785AH50T1GOSCT-ND</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 5V 10MA SOT89-3</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SOT-89</t>
-  </si>
-  <si>
-    <t>LDO-12V-10mA</t>
   </si>
 </sst>
 </file>
@@ -467,65 +503,66 @@
     <xf xxid="34" numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
     <xf xxid="35" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf xxid="36" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1"/>
-    <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1"/>
-    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1"/>
-    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
-    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
-    <xf xxid="48" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="49" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="50" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
+    <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
+    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
+    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="48" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="49" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="50" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="51" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="51" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="52" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="52" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="53" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="53" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="54" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="54" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf xxid="55" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="55" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="56" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="56" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="57" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="57" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf xxid="58" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="58" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="59" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="59" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="60" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="60" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="61" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="61" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="62" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="62" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf xxid="63" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="63" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="64" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="64" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="65" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="65" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf xxid="66" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,7 +583,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -554,288 +591,330 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
   <cols>
-    <col min="1" max="6" width="20.2109375" customWidth="1"/>
+    <col min="1" max="1" width="26.3828125" customWidth="1"/>
+    <col min="2" max="2" width="20.2109375" customWidth="1"/>
+    <col min="3" max="3" width="16.9609375" customWidth="1"/>
+    <col min="4" max="6" width="20.2109375" customWidth="1"/>
+    <col min="7" max="7" width="16.9609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="41" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="42">
+      <c r="E2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="43">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="44" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="45">
+      <c r="D3" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="G3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="44" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="45">
+      <c r="C4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="G4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="44" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="45">
+      <c r="B5" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="45">
+      <c r="G5" s="45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="46">
+        <v>1</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="46">
+        <v>1</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="46">
+        <v>1</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="46">
+        <v>1</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="46">
+        <v>1</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="46">
+        <v>1</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="46">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="45">
+      <c r="G12" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="46">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="45">
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="46">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="45">
-        <v>1</v>
-      </c>
+      <c r="G14" s="45"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
